--- a/Pyomo/MILP_v1/Input_Files/InputData34.xlsx
+++ b/Pyomo/MILP_v1/Input_Files/InputData34.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip Forro\PycharmProjects\MasterThesis\Pyomo\MILP_v1\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D838A66-F093-46E6-8BA3-BEF4DE955A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E950F9-B177-4037-8BC8-8C11F68C9AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="890" activeTab="10" xr2:uid="{C29AC206-A880-42C7-97CB-0C3D79BA6B73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="890" activeTab="12" xr2:uid="{C29AC206-A880-42C7-97CB-0C3D79BA6B73}"/>
   </bookViews>
   <sheets>
     <sheet name="LineData" sheetId="3" r:id="rId1"/>
     <sheet name="CableTypes" sheetId="9" r:id="rId2"/>
     <sheet name="NodeData" sheetId="2" r:id="rId3"/>
-    <sheet name="SystemDemand" sheetId="1" r:id="rId4"/>
-    <sheet name="PVData" sheetId="7" r:id="rId5"/>
-    <sheet name="PVGeneration" sheetId="4" r:id="rId6"/>
-    <sheet name="WindData" sheetId="8" r:id="rId7"/>
-    <sheet name="WindGeneration" sheetId="5" r:id="rId8"/>
-    <sheet name="Storages" sheetId="6" r:id="rId9"/>
-    <sheet name="DGs" sheetId="10" r:id="rId10"/>
-    <sheet name="AggData" sheetId="11" r:id="rId11"/>
+    <sheet name="PVData" sheetId="7" r:id="rId4"/>
+    <sheet name="PVGeneration" sheetId="4" r:id="rId5"/>
+    <sheet name="WindData" sheetId="8" r:id="rId6"/>
+    <sheet name="WindGeneration" sheetId="5" r:id="rId7"/>
+    <sheet name="Storages" sheetId="6" r:id="rId8"/>
+    <sheet name="DGs" sheetId="10" r:id="rId9"/>
+    <sheet name="AggData" sheetId="11" r:id="rId10"/>
+    <sheet name="SystemDemand" sheetId="1" r:id="rId11"/>
     <sheet name="DemandBlocks" sheetId="12" r:id="rId12"/>
     <sheet name="UtilTimeMul" sheetId="13" r:id="rId13"/>
   </sheets>
@@ -666,7 +666,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,12 +679,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1572,103 +1566,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D19BE1F-7FF3-4617-8CC4-990DA12B4F3A}">
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>34</v>
-      </c>
-      <c r="B2">
-        <v>1.5</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>35</v>
-      </c>
-      <c r="E2">
-        <v>0.9</v>
-      </c>
-      <c r="F2">
-        <v>300</v>
-      </c>
-      <c r="G2">
-        <v>-300</v>
-      </c>
-      <c r="H2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>32</v>
-      </c>
-      <c r="B3">
-        <v>1.5</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>35</v>
-      </c>
-      <c r="E3">
-        <v>0.9</v>
-      </c>
-      <c r="F3">
-        <v>300</v>
-      </c>
-      <c r="G3">
-        <v>-300</v>
-      </c>
-      <c r="H3">
-        <v>1000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C358DC-12EF-4E1A-B9B4-66615C268D13}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -2411,6 +2312,296 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888424A-DB72-4D36-91F6-3CF3A5F0E23C}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.52</v>
+      </c>
+      <c r="C3">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.47</v>
+      </c>
+      <c r="C4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.49</v>
+      </c>
+      <c r="C5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C6">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0.62</v>
+      </c>
+      <c r="C7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0.75</v>
+      </c>
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.73</v>
+      </c>
+      <c r="C9">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0.7</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C11">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.51</v>
+      </c>
+      <c r="C12">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.34</v>
+      </c>
+      <c r="C13">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.41</v>
+      </c>
+      <c r="C14">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.49</v>
+      </c>
+      <c r="C15">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.64</v>
+      </c>
+      <c r="C17">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.88</v>
+      </c>
+      <c r="C18">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>0.98</v>
+      </c>
+      <c r="C19">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
+      </c>
+      <c r="C20">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>0.82</v>
+      </c>
+      <c r="C21">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>0.75</v>
+      </c>
+      <c r="C22">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>0.78</v>
+      </c>
+      <c r="C23">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>0.81</v>
+      </c>
+      <c r="C24">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>0.32</v>
+      </c>
+      <c r="C25">
+        <v>0.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3942,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9CC84-213D-4985-AA31-FE31D3539A2C}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4695,296 +4886,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C888424A-DB72-4D36-91F6-3CF3A5F0E23C}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-      <c r="C2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.52</v>
-      </c>
-      <c r="C3">
-        <v>0.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.47</v>
-      </c>
-      <c r="C4">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0.49</v>
-      </c>
-      <c r="C5">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C6">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0.62</v>
-      </c>
-      <c r="C7">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.75</v>
-      </c>
-      <c r="C8">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0.73</v>
-      </c>
-      <c r="C9">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0.7</v>
-      </c>
-      <c r="C10">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C11">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>0.51</v>
-      </c>
-      <c r="C12">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>0.34</v>
-      </c>
-      <c r="C13">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0.41</v>
-      </c>
-      <c r="C14">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>0.49</v>
-      </c>
-      <c r="C15">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C16">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>0.64</v>
-      </c>
-      <c r="C17">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.88</v>
-      </c>
-      <c r="C18">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <v>0.98</v>
-      </c>
-      <c r="C19">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <v>0.9</v>
-      </c>
-      <c r="C20">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <v>0.82</v>
-      </c>
-      <c r="C21">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>0.75</v>
-      </c>
-      <c r="C22">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <v>0.78</v>
-      </c>
-      <c r="C23">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <v>0.81</v>
-      </c>
-      <c r="C24">
-        <v>0.81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>0.32</v>
-      </c>
-      <c r="C25">
-        <v>0.32</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{426FB03F-1F76-4A79-87BD-14907EA3DD39}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5021,7 +4922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E188388F-9589-46DC-9C0D-D977A2F41FDD}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -5311,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1B3BC8-3C07-47B0-8D22-CF47C6C555E5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5348,7 +5249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C7EFCC-E783-4DCB-9C5E-0A7881F61A6E}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -5638,7 +5539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F77D7E6-0115-42F0-8134-8343530800AF}">
   <dimension ref="A1:E3"/>
   <sheetViews>
@@ -5702,4 +5603,97 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D19BE1F-7FF3-4617-8CC4-990DA12B4F3A}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>1.5</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>0.9</v>
+      </c>
+      <c r="F2">
+        <v>300</v>
+      </c>
+      <c r="G2">
+        <v>-300</v>
+      </c>
+      <c r="H2">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>0.9</v>
+      </c>
+      <c r="F3">
+        <v>300</v>
+      </c>
+      <c r="G3">
+        <v>-300</v>
+      </c>
+      <c r="H3">
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Pyomo/MILP_v1/Input_Files/InputData34.xlsx
+++ b/Pyomo/MILP_v1/Input_Files/InputData34.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip Forro\PycharmProjects\MasterThesis\Pyomo\MILP_v1\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E950F9-B177-4037-8BC8-8C11F68C9AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064D60C-4D62-470D-8F85-CA8152629F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="890" activeTab="12" xr2:uid="{C29AC206-A880-42C7-97CB-0C3D79BA6B73}"/>
   </bookViews>
@@ -4134,7 +4134,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4169,7 +4169,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="C3">
         <v>40</v>
@@ -4180,7 +4180,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
       <c r="C4">
         <v>40</v>
@@ -4191,7 +4191,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="C5">
         <v>45</v>
@@ -4202,7 +4202,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0.76</v>
       </c>
       <c r="C6">
         <v>50</v>
@@ -4213,7 +4213,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.97</v>
       </c>
       <c r="C7">
         <v>55</v>
@@ -4224,7 +4224,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <v>55</v>
@@ -4235,7 +4235,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="C9">
         <v>55</v>
@@ -4246,7 +4246,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C10">
         <v>50</v>
@@ -4257,7 +4257,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -4268,7 +4268,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="C12">
         <v>50</v>
@@ -4279,7 +4279,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="C13">
         <v>50</v>
@@ -4290,7 +4290,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C14">
         <v>50</v>
@@ -4301,7 +4301,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.94</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -4312,7 +4312,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="C16">
         <v>50</v>
@@ -4323,7 +4323,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="C17">
         <v>50</v>
@@ -4334,7 +4334,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="C18">
         <v>50</v>
@@ -4345,7 +4345,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -4356,7 +4356,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -4367,7 +4367,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="C21">
         <v>60</v>
@@ -4378,7 +4378,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="C22">
         <v>60</v>
@@ -4389,7 +4389,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1.2</v>
+        <v>0.99</v>
       </c>
       <c r="C23">
         <v>60</v>
@@ -4400,7 +4400,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1.2</v>
+        <v>0.92</v>
       </c>
       <c r="C24">
         <v>60</v>
@@ -4411,7 +4411,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1.2</v>
+        <v>0.84</v>
       </c>
       <c r="C25">
         <v>60</v>

--- a/Pyomo/MILP_v1/Input_Files/InputData34.xlsx
+++ b/Pyomo/MILP_v1/Input_Files/InputData34.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Filip Forro\PycharmProjects\MasterThesis\Pyomo\MILP_v1\Input_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064D60C-4D62-470D-8F85-CA8152629F7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7781B3-4D14-4255-9526-CB26C67590E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="890" activeTab="12" xr2:uid="{C29AC206-A880-42C7-97CB-0C3D79BA6B73}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="890" activeTab="9" xr2:uid="{C29AC206-A880-42C7-97CB-0C3D79BA6B73}"/>
   </bookViews>
   <sheets>
     <sheet name="LineData" sheetId="3" r:id="rId1"/>
@@ -1569,8 +1569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C358DC-12EF-4E1A-B9B4-66615C268D13}">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4133,7 +4133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E9CC84-213D-4985-AA31-FE31D3539A2C}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
